--- a/server/resources/Distributors.xlsx
+++ b/server/resources/Distributors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylelevy/code/nextjs-code-challenge/server/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quinnlonergan/Development/Code/Mod5/code-challenge/server/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50C8CE1-2C4A-E547-90D0-FB5945BB241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C815739-B85A-224E-A3CA-61C258C64A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="18700" activeTab="2" xr2:uid="{55F9AAF4-5023-6A4C-B2E9-1E49E110F345}"/>
+    <workbookView xWindow="13580" yWindow="460" windowWidth="16800" windowHeight="18700" xr2:uid="{55F9AAF4-5023-6A4C-B2E9-1E49E110F345}"/>
   </bookViews>
   <sheets>
     <sheet name="Candy Corp" sheetId="1" r:id="rId1"/>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DF09A-8712-0349-8B63-36BB778FDA93}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,21 +523,6 @@
       <c r="C5">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -742,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13DAFF-8F71-B54E-92DC-3370EFEE3E1C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
